--- a/10.0 CRONOGRAMA/CRONOGRAMA- JOSE MARIA ARGUEDAS - CHUQUI.xlsx
+++ b/10.0 CRONOGRAMA/CRONOGRAMA- JOSE MARIA ARGUEDAS - CHUQUI.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RECUPERADO 26-11-19\ENTREGADOS IOARR\IOARR  JOSE MARIA ARGUEDAS\10.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018\Desktop\TURISMO CASA\IOARR0002-JM-ARGUEDAS\10.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,10 +16,10 @@
     <sheet name="FISICO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$20</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Acciones</t>
   </si>
@@ -154,14 +154,29 @@
   <si>
     <t>CRONOGRAMA FISICO</t>
   </si>
+  <si>
+    <r>
+      <t>Cronograma de inversión IOARR: “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA  I.E.S. "JOSE MARIA ARGUEDAS" CHUQUIBAMBILLA, DISTRITO CHUQUIBAMBILLA, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -661,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,40 +703,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -734,19 +743,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,6 +779,21 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -824,13 +845,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,7 +906,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -945,7 +966,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1005,7 +1026,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,7 +1086,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1125,7 +1146,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1206,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1266,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1305,7 +1326,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1386,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1446,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1506,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1820,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1814,42 +1835,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1864,19 +1885,19 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10">
+      <c r="F4" s="36">
         <v>3477.46</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1885,12 +1906,12 @@
       <c r="B6" s="3"/>
       <c r="C6" s="10">
         <f>F6</f>
-        <v>103069.96</v>
+        <v>132332.96</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10">
-        <v>103069.96</v>
+        <v>132332.96</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1900,19 +1921,19 @@
       <c r="B7" s="3"/>
       <c r="C7" s="10">
         <f>F7/2</f>
-        <v>42798.315000000002</v>
+        <v>47379.47</v>
       </c>
       <c r="D7" s="10">
         <f>F7/2</f>
-        <v>42798.315000000002</v>
+        <v>47379.47</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
-        <v>85596.63</v>
+        <v>94758.94</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
@@ -1922,12 +1943,12 @@
         <v>5024.34</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="F8" s="36">
         <v>5024.34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3"/>
@@ -1937,7 +1958,7 @@
         <v>11211.5</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="F9" s="36">
         <v>11211.5</v>
       </c>
     </row>
@@ -1952,7 +1973,7 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="12">
+      <c r="F10" s="37">
         <v>3000</v>
       </c>
     </row>
@@ -1963,16 +1984,16 @@
       <c r="B11" s="5"/>
       <c r="C11" s="13">
         <f>SUM(C4:C10)</f>
-        <v>152345.73500000002</v>
+        <v>186189.88999999998</v>
       </c>
       <c r="D11" s="13">
         <f>SUM(D4:D10)</f>
-        <v>59034.154999999999</v>
+        <v>63615.31</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="15">
         <f>+F6+F7+F8+F9+F10+F4</f>
-        <v>211379.89</v>
+        <v>249805.19999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1987,7 +2008,7 @@
         <v>9668.3549999999996</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="18">
+      <c r="F12" s="38">
         <v>63017.78</v>
       </c>
     </row>
@@ -2005,7 +2026,7 @@
         <v>12480.75</v>
       </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="18">
+      <c r="F13" s="38">
         <v>24961.5</v>
       </c>
     </row>
@@ -2023,7 +2044,7 @@
         <v>7732.03</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="18">
+      <c r="F14" s="38">
         <v>15464.06</v>
       </c>
     </row>
@@ -2038,7 +2059,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="18">
+      <c r="F15" s="38">
         <v>10000</v>
       </c>
     </row>
@@ -2053,7 +2074,7 @@
         <f>F16</f>
         <v>17290.75</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="39">
         <v>17290.75</v>
       </c>
     </row>
@@ -2061,35 +2082,35 @@
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="18">
         <f>SUM(B11:B16)</f>
         <v>10000</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <f>SUM(C11:C16)</f>
-        <v>182226.87000000002</v>
-      </c>
-      <c r="D17" s="20">
+        <v>216071.02499999999</v>
+      </c>
+      <c r="D17" s="18">
         <f>SUM(D11:D16)</f>
-        <v>88915.29</v>
-      </c>
-      <c r="E17" s="20">
+        <v>93496.444999999992</v>
+      </c>
+      <c r="E17" s="18">
         <f>SUM(E11:E16)</f>
         <v>17290.75</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="21">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="19">
         <f>SUM(F11:F16)+0.01</f>
-        <v>342113.99000000005</v>
+        <v>380539.3</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2133,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:R20"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2124,517 +2145,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="A1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-    </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+    </row>
+    <row r="3" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="32" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="1:18" s="21" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="32"/>
-    </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="R4" s="29"/>
+    </row>
+    <row r="5" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="10">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="36">
         <v>3477.46</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:18" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-    </row>
-    <row r="7" spans="1:18" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+    </row>
+    <row r="7" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="10">
-        <v>103069.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="36">
+        <v>132332.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="10">
-        <v>85596.63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="36">
+        <v>94758.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="10">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="36">
         <v>5024.34</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="10">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="36">
         <v>11211.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
       <c r="R11" s="12">
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="29">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26">
         <f>+R7+R8+R9+R10+R11+R5</f>
-        <v>211379.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+        <v>249805.19999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="26">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="40">
         <v>63017.78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="26">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="40">
         <v>24961.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="26">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="40">
         <v>15464.06</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="26">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="40">
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="26">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="40">
         <v>17290.75</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="23" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:18" s="21" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="56">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="28"/>
+    </row>
+    <row r="19" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65"/>
+      <c r="B19" s="58">
         <v>10000</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61">
         <v>189045.13</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="59">
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="61">
         <v>88725.28</v>
       </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="59">
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="61">
         <v>17290.75</v>
       </c>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="35"/>
-    </row>
-    <row r="20" spans="1:18" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="32"/>
+    </row>
+    <row r="20" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="30">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="27">
         <f>SUM(R12:R17)+0.01</f>
-        <v>342113.99000000005</v>
+        <v>380539.3</v>
       </c>
     </row>
   </sheetData>

--- a/10.0 CRONOGRAMA/CRONOGRAMA- JOSE MARIA ARGUEDAS - CHUQUI.xlsx
+++ b/10.0 CRONOGRAMA/CRONOGRAMA- JOSE MARIA ARGUEDAS - CHUQUI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018\Desktop\TURISMO CASA\IOARR0002-JM-ARGUEDAS\10.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\IOARR0002-JM-ARGUEDAS\10.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B8D145-B66C-46D1-93BD-66E9F442702E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,10 +174,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -703,34 +704,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,10 +750,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,19 +780,19 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,22 +846,22 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,28 +1814,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -1844,7 +1845,7 @@
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>30</v>
       </c>
@@ -1854,7 +1855,7 @@
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
     </row>
-    <row r="3" spans="1:6" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>3477.46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1900,7 @@
       <c r="E5" s="47"/>
       <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>132332.96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>94758.94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>5024.34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>11211.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1996,23 +1997,25 @@
         <v>249805.19999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="16">
-        <v>9668.3549999999996</v>
+        <f>F12/2</f>
+        <v>31508.89</v>
       </c>
       <c r="D12" s="16">
-        <v>9668.3549999999996</v>
+        <f>F12/2</f>
+        <v>31508.89</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="38">
         <v>63017.78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>24961.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>15464.06</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>17290.75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -2088,11 +2091,11 @@
       </c>
       <c r="C17" s="18">
         <f>SUM(C11:C16)</f>
-        <v>216071.02499999999</v>
+        <v>237911.55999999997</v>
       </c>
       <c r="D17" s="18">
         <f>SUM(D11:D16)</f>
-        <v>93496.444999999992</v>
+        <v>115336.98</v>
       </c>
       <c r="E17" s="18">
         <f>SUM(E11:E16)</f>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
@@ -2126,25 +2129,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="17" width="3.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="17" width="3.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>32</v>
       </c>
@@ -2166,7 +2169,7 @@
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
     </row>
-    <row r="2" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -2188,7 +2191,7 @@
       <c r="Q2" s="56"/>
       <c r="R2" s="56"/>
     </row>
-    <row r="3" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>29</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="21" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="21" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
@@ -2272,7 +2275,7 @@
       </c>
       <c r="R4" s="29"/>
     </row>
-    <row r="5" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="21" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>3477.46</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>19</v>
       </c>
@@ -2318,7 +2321,7 @@
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
     </row>
-    <row r="7" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="21" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>132332.96</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="21" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>94758.94</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="21" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>5024.34</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="21" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>16</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>11211.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="21" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="21" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>17</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>7</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>249805.19999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>8</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>63017.78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>24961.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>18</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>15464.06</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>10</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>11</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>17290.75</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="21" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="21" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
         <v>7</v>
       </c>
@@ -2605,7 +2608,7 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="28"/>
     </row>
-    <row r="19" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="58">
         <v>10000</v>
@@ -2633,7 +2636,7 @@
       <c r="Q19" s="63"/>
       <c r="R19" s="32"/>
     </row>
-    <row r="20" spans="1:18" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>12</v>
       </c>
